--- a/Assets/06.Table/SnowManAtten.xlsx
+++ b/Assets/06.Table/SnowManAtten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D9C6FE-7D90-46B8-A812-3AC8F104F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D00F8E-3589-488C-A74D-0E9AC30076AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SnowManAtten" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A11" sqref="A11:A712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>78750000</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>79000000</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>79250000</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>79400000</v>
@@ -2890,8 +2890,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>316</v>
+      <c r="A104" s="2">
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>79500000</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>79750000</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>80000000</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>80200000</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>319</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>80250000</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>80500000</v>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>321</v>
+      <c r="A110" s="2">
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>80750000</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>81000000</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>81000000</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>81250000</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>81500000</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>81750000</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>81800000</v>
@@ -3176,8 +3176,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
-        <v>326</v>
+      <c r="A117" s="2">
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>82000000</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>327</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>82250000</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>82500000</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>82600000</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>82750000</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>83000000</v>
@@ -3308,8 +3308,8 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>331</v>
+      <c r="A123" s="2">
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>83250000</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>83400000</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>332</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>83500000</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>333</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>83750000</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>84000000</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>84200000</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>335</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>84250000</v>
@@ -3462,8 +3462,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>336</v>
+      <c r="A130" s="2">
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>84500000</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>84750000</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>85000000</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>85000000</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>85250000</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>85500000</v>
@@ -3606,8 +3606,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
-        <v>341</v>
+      <c r="A136" s="2">
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>85750000</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>85800000</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>86000000</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>86250000</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>344</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>86500000</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>86600000</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>345</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>86750000</v>
@@ -3760,8 +3760,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>346</v>
+      <c r="A143" s="2">
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>87000000</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>87250000</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>87400000</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>348</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>87500000</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>87750000</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>88000000</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>88200000</v>
@@ -3914,8 +3914,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>351</v>
+      <c r="A150" s="2">
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>88250000</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>352</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>88500000</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>88750000</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>89000000</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>89000000</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>89250000</v>
@@ -4046,8 +4046,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
-        <v>356</v>
+      <c r="A156" s="2">
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>89500000</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>89750000</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>89800000</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>358</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>90000000</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>90250000</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>90500000</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>90600000</v>
@@ -4200,8 +4200,8 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
-        <v>361</v>
+      <c r="A163" s="2">
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>90750000</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>91000000</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>363</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>91250000</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>91400000</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>91500000</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>91750000</v>
@@ -4332,8 +4332,8 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
-        <v>366</v>
+      <c r="A169" s="2">
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>92000000</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>92200000</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>92250000</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>92500000</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>92750000</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>93000000</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>93000000</v>
@@ -4486,8 +4486,8 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
-        <v>371</v>
+      <c r="A176" s="2">
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>93250000</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>372</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>93500000</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>93750000</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>93800000</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>94000000</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>94250000</v>
@@ -4618,8 +4618,8 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
-        <v>376</v>
+      <c r="A182" s="2">
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>94500000</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>94600000</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>377</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>94750000</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>378</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>95000000</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>379</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>95250000</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>95400000</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>95500000</v>
@@ -4772,8 +4772,8 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
-        <v>381</v>
+      <c r="A189" s="2">
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>95750000</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>96000000</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>96200000</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>96250000</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>96500000</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>385</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>96750000</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>97000000</v>
@@ -4938,8 +4938,8 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
-        <v>386</v>
+      <c r="A196" s="2">
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>97000000</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>97250000</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>388</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>97500000</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>97750000</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>97800000</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>98000000</v>
@@ -5070,8 +5070,8 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
-        <v>391</v>
+      <c r="A202" s="2">
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>98250000</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>392</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>98500000</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>98600000</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>393</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>98750000</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>99000000</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>395</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>99250000</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>99400000</v>
@@ -5224,8 +5224,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
-        <v>396</v>
+      <c r="A209" s="2">
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>99500000</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>99750000</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>100000000</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>100200000</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>101000000</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>101800000</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>102600000</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>103400000</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>104200000</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>105000000</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>105800000</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>106600000</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>107400000</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>108200000</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>109000000</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>109800000</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>110600000</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>111400000</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>112200000</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>113000000</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>113800000</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>114600000</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>115400000</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>116200000</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>117000000</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>117800000</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>118600000</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>119400000</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>120200000</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>121000000</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>121800000</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>122600000</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>123400000</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>124200000</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>125000000</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>125800000</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>126600000</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>127400000</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>128200000</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>129000000</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>129800000</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>130600000</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>131400000</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>132200000</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>133000000</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>133800000</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>134600000</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>135400000</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>136200000</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>137000000</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>137800000</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>138600000</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>139400000</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>140200000</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>141000000</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>141800000</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>142600000</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>143400000</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>144200000</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>145000000</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>145800000</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>146600000</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>147400000</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>148200000</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>149000000</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>149800000</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>150600000</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>151400000</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>152200000</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>153000000</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>153800000</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>154600000</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>155400000</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>156200000</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>157000000</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>157800000</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>158600000</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>159400000</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>160200000</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>161000000</v>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>161800000</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>162600000</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>163400000</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>164200000</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>165000000</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>165800000</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>166600000</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>167400000</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>168200000</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>169000000</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>169800000</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>170600000</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>171400000</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>172200000</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>173000000</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>173800000</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>174600000</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>175400000</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>176200000</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>177000000</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>177800000</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>178600000</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>179400000</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>180200000</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>181000000</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>181800000</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>182600000</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>183400000</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>184200000</v>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>185000000</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>185800000</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>186600000</v>
@@ -7701,7 +7701,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>187400000</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>188200000</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>189000000</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>189800000</v>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>190600000</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>191400000</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>192200000</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>193000000</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>193800000</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>194600000</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>195400000</v>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>196200000</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>197000000</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>197800000</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>198600000</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>199400000</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>200200000</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>201000000</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>201800000</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>202600000</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>203400000</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>204200000</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>205000000</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>205800000</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>206600000</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>207400000</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>208200000</v>
@@ -8307,7 +8307,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>209000000</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>209800000</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>210600000</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>211400000</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>212200000</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>213000000</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>213800000</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>214600000</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>215400000</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>216200000</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>217000000</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>217800000</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>218600000</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>219400000</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>220200000</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>221000000</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>221800000</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>222600000</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>223400000</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>224200000</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>225000000</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>225800000</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>226600000</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>227400000</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>228200000</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>229000000</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>229800000</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>230600000</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>231400000</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>232200000</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>233000000</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>233800000</v>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>234600000</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>235400000</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>236200000</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>237000000</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>237800000</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>238600000</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>239400000</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>240200000</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>241000000</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>241800000</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>242600000</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>243400000</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>244200000</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>245000000</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>245800000</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>246600000</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>247400000</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>248200000</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>249000000</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>249800000</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>250600000</v>
